--- a/기획자료/PYG_아이콘, 사운드_채림.xlsx
+++ b/기획자료/PYG_아이콘, 사운드_채림.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\Yggdrasil\Yggdrasil\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB12573-98B7-41CC-AD4F-2BF91F238A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B44CD9-A81A-402F-ACB1-C60AA1749F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="315" windowWidth="20625" windowHeight="13110" xr2:uid="{3E673B11-394C-45AC-B4D8-E0714D7F9C4E}"/>
+    <workbookView xWindow="3540" yWindow="615" windowWidth="20625" windowHeight="13110" xr2:uid="{3E673B11-394C-45AC-B4D8-E0714D7F9C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>타일 지정형 이속 증가 스킬, ~타일에 설치되어 ~초간 지속된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>music_48_Throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170002 이미지 오른쪽으로 
+90도 회전해서 넣어주세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +353,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +366,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -381,13 +396,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +422,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B03FA32-82C6-4767-8D9A-B1B73F4F0086}">
-  <dimension ref="B1:E19"/>
+  <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -727,10 +772,11 @@
     <col min="3" max="3" width="64.625" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
@@ -743,246 +789,314 @@
       <c r="E2" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="6">
+        <v>170005</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="6">
+        <v>170003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="6">
+        <v>170006</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="6">
+        <v>170002</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="6">
+        <v>170004</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="6">
+        <v>170013</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="6">
+        <v>170001</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="6">
+        <v>170008</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="6">
+        <v>170009</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="6">
+        <v>170010</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="6">
+        <v>170011</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="6">
+        <v>170007</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="6">
+        <v>170014</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="6">
+        <v>170015</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="6">
+        <v>170017</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="6">
+        <v>170016</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="F19" s="6">
+        <v>170012</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/기획자료/PYG_아이콘, 사운드_채림.xlsx
+++ b/기획자료/PYG_아이콘, 사운드_채림.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\Yggdrasil\Yggdrasil\기획자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B44CD9-A81A-402F-ACB1-C60AA1749F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0871875-4FB5-4004-B3B9-50E4CC2FBEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="615" windowWidth="20625" windowHeight="13110" xr2:uid="{3E673B11-394C-45AC-B4D8-E0714D7F9C4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E673B11-394C-45AC-B4D8-E0714D7F9C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>타일 지정형 이속 증가 스킬, ~타일에 설치되어 ~초간 지속된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,18 +275,6 @@
   </si>
   <si>
     <t>music_34_Speedup</t>
-  </si>
-  <si>
-    <t>넉백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타일 지정형 넉백 스킬, ~초간 몬스터를 못다가오게 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>music_29_sword_manytimes</t>
@@ -321,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,11 +427,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,10 +750,10 @@
   <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
@@ -775,8 +763,8 @@
     <col min="7" max="7" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="9.75" customHeight="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
@@ -790,10 +778,10 @@
         <v>49</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
@@ -810,7 +798,7 @@
         <v>170005</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
@@ -827,7 +815,7 @@
         <v>170003</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
@@ -844,7 +832,7 @@
         <v>170006</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
@@ -855,16 +843,16 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F6" s="6">
         <v>170002</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
@@ -880,27 +868,17 @@
       <c r="F7" s="6">
         <v>170004</v>
       </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="6">
-        <v>170013</v>
-      </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
@@ -911,14 +889,14 @@
         <v>56</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F9" s="6">
         <v>170001</v>
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -936,7 +914,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -954,7 +932,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
@@ -972,7 +950,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
@@ -983,14 +961,14 @@
         <v>14</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F13" s="6">
         <v>170011</v>
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1001,14 +979,14 @@
         <v>15</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F14" s="6">
         <v>170007</v>
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1003,7 @@
         <v>170014</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1042,7 +1020,7 @@
         <v>170015</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1053,13 +1031,13 @@
         <v>17</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F17" s="6">
         <v>170017</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1070,13 +1048,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F18" s="6">
         <v>170016</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1087,7 +1065,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F19" s="6">
         <v>170012</v>

--- a/기획자료/PYG_아이콘, 사운드_채림.xlsx
+++ b/기획자료/PYG_아이콘, 사운드_채림.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\기획자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0871875-4FB5-4004-B3B9-50E4CC2FBEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE3AA85-9DB7-4975-B943-2F1F709CB0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E673B11-394C-45AC-B4D8-E0714D7F9C4E}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
